--- a/tutorials/ERCEL/ercel_questionnaire_data.xlsx
+++ b/tutorials/ERCEL/ercel_questionnaire_data.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
-  <si>
-    <t xml:space="preserve">rowname</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve">Start Date</t>
   </si>
@@ -77,9 +74,6 @@
     <t xml:space="preserve">day - pátek</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">29/01/21 5:46</t>
   </si>
   <si>
@@ -98,319 +92,268 @@
     <t xml:space="preserve">CS</t>
   </si>
   <si>
+    <t xml:space="preserve">anonymised12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/01/21 6:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/01/21 6:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2QQk6UcLe88aTe1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymised16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-10.30am,10.30am-12.00pm,12.00-1.30pm,1.30-3.00pm,3.00-4.30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30-3.00pm,3.00-4.30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/01/21 6:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/01/21 7:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_1KoQaiwsGfgbWEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymised07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-10.30am,10.30am-12.00pm,12.00-1.30pm,1.30-3.00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-10.30am,1.30-3.00pm,3.00-4.30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-10.30am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.00-1.30pm,1.30-3.00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/01/21 8:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/01/21 8:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2s0T5JRn04eUlnN</t>
+  </si>
+  <si>
     <t xml:space="preserve">anonymised10</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/01/21 6:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/01/21 6:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_2QQk6UcLe88aTe1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymous</t>
+    <t xml:space="preserve">9.00-10.30am,10.30am-12.00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/01/21 6:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/01/21 8:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2tLSrZwE4o6vBJQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymised05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.30am-12.00pm,1.30-3.00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-10.30am,10.30am-12.00pm,12.00-1.30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/01/21 10:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/01/21 10:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2YupkPLIcgKCxiH</t>
   </si>
   <si>
     <t xml:space="preserve">anonymised13</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00-10.30am,10.30am-12.00pm,12.00-1.30pm,1.30-3.00pm,3.00-4.30pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30-3.00pm,3.00-4.30pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/01/21 6:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/01/21 7:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_1KoQaiwsGfgbWEB</t>
+    <t xml:space="preserve">9.00-10.30am,1.30-3.00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.30am-12.00pm,12.00-1.30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/01/21 12:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/01/21 13:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2dsWX5bP2ndXQWG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymised04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/01/21 0:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/01/21 0:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_1IhG4rCiGoVZ6zP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymised02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-10.30am,12.00-1.30pm,1.30-3.00pm,3.00-4.30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/01/21 3:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/01/21 3:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_1oC2wzjuNJOMAO9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymised09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00-10.30am,10.30am-12.00pm,1.30-3.00pm,3.00-4.30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/01/21 7:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/01/21 7:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_3gYGKYmb38Pzhvh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymised14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/01/21 9:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/01/21 9:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_3JBZFLVPpu7JHrP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymised01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.00-1.30pm,1.30-3.00pm,3.00-4.30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/01/21 1:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/01/21 2:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_1OTZxaRnsW6Jh9W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymised17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/01/21 4:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/01/21 4:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_Oxlo9GHFu5kkRUd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymised15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.30am-12.00pm,1.30-3.00pm,3.00-4.30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.30am-12.00pm,12.00-1.30pm,1.30-3.00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.30am-12.00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/01/21 15:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/01/21 15:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_1lo5I1NYFlXSnhS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymised06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/02/21 0:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/02/21 0:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_uvI0qRhoqeGIltn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymised03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/02/21 6:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/02/21 7:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_1DCsILoCVPZfxJG</t>
   </si>
   <si>
     <t xml:space="preserve">anonymised08</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00-10.30am,10.30am-12.00pm,12.00-1.30pm,1.30-3.00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00-10.30am,1.30-3.00pm,3.00-4.30pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00-10.30am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.00-1.30pm,1.30-3.00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/01/21 8:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/01/21 8:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_2s0T5JRn04eUlnN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymised02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00-10.30am,10.30am-12.00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/01/21 6:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/01/21 8:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_2tLSrZwE4o6vBJQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymised15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.30am-12.00pm,1.30-3.00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00-10.30am,10.30am-12.00pm,12.00-1.30pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/01/21 10:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/01/21 10:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_2YupkPLIcgKCxiH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymised16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00-10.30am,1.30-3.00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.30am-12.00pm,12.00-1.30pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/01/21 12:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/01/21 13:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_2dsWX5bP2ndXQWG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymised17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/01/21 0:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/01/21 0:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_1IhG4rCiGoVZ6zP</t>
+    <t xml:space="preserve">5/02/21 5:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/02/21 6:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_DP4nseEopFGGjUB</t>
   </si>
   <si>
     <t xml:space="preserve">anonymised18</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00-10.30am,12.00-1.30pm,1.30-3.00pm,3.00-4.30pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/01/21 3:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/01/21 3:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_1oC2wzjuNJOMAO9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymised06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00-10.30am,10.30am-12.00pm,1.30-3.00pm,3.00-4.30pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/01/21 7:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/01/21 7:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_3gYGKYmb38Pzhvh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymised09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/01/21 9:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/01/21 9:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_3JBZFLVPpu7JHrP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymised14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.00-1.30pm,1.30-3.00pm,3.00-4.30pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/21 1:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/21 2:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_1OTZxaRnsW6Jh9W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymised03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/21 4:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/21 4:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_Oxlo9GHFu5kkRUd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymised04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.30am-12.00pm,1.30-3.00pm,3.00-4.30pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.30am-12.00pm,12.00-1.30pm,1.30-3.00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.30am-12.00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/21 15:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/21 15:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_1lo5I1NYFlXSnhS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymised01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/02/21 0:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/02/21 0:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_uvI0qRhoqeGIltn</t>
+    <t xml:space="preserve">9/02/21 2:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/02/21 2:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2cAcEYRVZ2aEcRU</t>
   </si>
   <si>
     <t xml:space="preserve">anonymised11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/02/21 6:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/02/21 7:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_1DCsILoCVPZfxJG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymised07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/02/21 5:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/02/21 6:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_DP4nseEopFGGjUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymised05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/02/21 2:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/02/21 2:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_2cAcEYRVZ2aEcRU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anonymised12</t>
   </si>
   <si>
     <t xml:space="preserve">10.30am-12.00pm,12.00-1.30pm,1.30-3.00pm,3.00-4.30pm</t>
@@ -806,1004 +749,947 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
+      <c r="D2" t="n">
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="b">
+      <c r="F2" t="b">
         <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-      <c r="M2"/>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
       <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
+      <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
-      <c r="U2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>68</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>68</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3"/>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
       <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
-      </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
         <v>112</v>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="M4"/>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" t="s">
         <v>42</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
         <v>71</v>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5"/>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5"/>
+        <v>46</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
       <c r="R5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
         <v>5695</v>
       </c>
-      <c r="G6" t="b">
-        <v>1</v>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="M6"/>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="P6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6" t="s">
         <v>52</v>
       </c>
-      <c r="R6"/>
-      <c r="S6"/>
       <c r="T6" t="s">
-        <v>58</v>
-      </c>
-      <c r="U6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
         <v>2524</v>
       </c>
-      <c r="G7" t="b">
-        <v>1</v>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7"/>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="Q7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" t="s">
         <v>59</v>
-      </c>
-      <c r="S7"/>
-      <c r="T7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
         <v>2700</v>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>70</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8"/>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
+      <c r="R8" t="s">
+        <v>47</v>
+      </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
         <v>119</v>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="M9"/>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="P9" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="Q9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="S9" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="T9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="n">
         <v>281</v>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="M10"/>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O10" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="Q10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s">
-        <v>83</v>
-      </c>
-      <c r="U10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D11" t="n">
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" t="n">
         <v>55</v>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11"/>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
       <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" t="s">
         <v>34</v>
       </c>
-      <c r="O11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>52</v>
-      </c>
       <c r="R11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" t="n">
         <v>552</v>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" t="s">
-        <v>92</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12"/>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
       <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" t="s">
         <v>34</v>
       </c>
-      <c r="O12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>94</v>
-      </c>
       <c r="R12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="S12" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s">
-        <v>94</v>
-      </c>
-      <c r="U12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
-      </c>
-      <c r="F13" t="n">
         <v>272</v>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" t="s">
-        <v>98</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="M13"/>
+      <c r="M13" t="s">
+        <v>31</v>
+      </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O13" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="Q13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D14" t="n">
+        <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>100</v>
-      </c>
-      <c r="F14" t="n">
         <v>145</v>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" t="s">
-        <v>103</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-      <c r="M14"/>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
       <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" t="s">
         <v>34</v>
       </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>105</v>
-      </c>
       <c r="R14" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14" t="s">
-        <v>106</v>
-      </c>
-      <c r="T14"/>
-      <c r="U14" t="s">
-        <v>107</v>
+        <v>92</v>
+      </c>
+      <c r="S14"/>
+      <c r="T14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D15" t="n">
+        <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" t="n">
         <v>81</v>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" t="s">
-        <v>111</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15"/>
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
       <c r="N15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>46</v>
-      </c>
-      <c r="R15"/>
+        <v>42</v>
+      </c>
+      <c r="Q15"/>
+      <c r="R15" t="s">
+        <v>47</v>
+      </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s">
-        <v>43</v>
-      </c>
-      <c r="U15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D16" t="n">
+        <v>100</v>
       </c>
       <c r="E16" t="n">
         <v>100</v>
       </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" t="s">
-        <v>116</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16"/>
+      <c r="M16" t="s">
+        <v>31</v>
+      </c>
       <c r="N16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="Q16" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="R16" t="s">
-        <v>45</v>
-      </c>
-      <c r="S16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T16"/>
-      <c r="U16" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="S16"/>
+      <c r="T16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>100</v>
-      </c>
-      <c r="F17" t="n">
         <v>832</v>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" t="s">
-        <v>121</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17"/>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
       <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" t="s">
         <v>34</v>
       </c>
-      <c r="O17" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>94</v>
-      </c>
-      <c r="R17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S17"/>
+      <c r="R17"/>
+      <c r="S17" t="s">
+        <v>39</v>
+      </c>
       <c r="T17" t="s">
-        <v>43</v>
-      </c>
-      <c r="U17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D18" t="n">
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" t="n">
         <v>4306</v>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" t="s">
-        <v>126</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18"/>
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O18" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="Q18" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="R18" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="S18" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="T18" t="s">
-        <v>43</v>
-      </c>
-      <c r="U18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D19" t="n">
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" t="n">
         <v>45</v>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" t="s">
-        <v>131</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19"/>
+      <c r="M19" t="s">
+        <v>31</v>
+      </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O19" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="Q19" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="R19" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="S19" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="T19" t="s">
-        <v>133</v>
-      </c>
-      <c r="U19" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
